--- a/src/test/test_singlezone/steady_08/正解値08.xlsx
+++ b/src/test/test_singlezone/steady_08/正解値08.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\src\test\test_singlezone\steady_08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8B1B67-787B-425E-B45E-94094F38508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC712D5E-D0E3-4896-8A14-AE270F644865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="1185" windowWidth="25755" windowHeight="11235" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
     <sheet name="正解値" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="1E-10"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="9.9999999999999998E-13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -83,16 +83,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熱抵抗</t>
-    <rPh sb="0" eb="1">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>テイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>屋外側表面熱伝達抵抗</t>
     <rPh sb="0" eb="3">
       <t>オクガイガワ</t>
@@ -313,29 +303,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作用温度</t>
-    <rPh sb="0" eb="4">
-      <t>サヨウオンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>相当外気温度</t>
-    <rPh sb="0" eb="2">
-      <t>ソウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガイキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アタタ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表面熱流</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1039,6 +1006,29 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏面温度</t>
+    <rPh sb="0" eb="2">
+      <t>リメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>建材熱抵抗</t>
+    <rPh sb="0" eb="2">
+      <t>ケンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1244,6 +1234,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1255,9 +1248,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1706,28 +1696,28 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="H2" s="13">
         <v>1.199999999980782</v>
@@ -1759,7 +1749,7 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H3" s="10">
         <v>20</v>
@@ -1897,7 +1887,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="14">
         <f>SUM(B3:B8)</f>
@@ -1921,10 +1911,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V13" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1941,263 +1931,249 @@
     <col min="16" max="17" width="20.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.125" customWidth="1"/>
+    <col min="20" max="20" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="S19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z19" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A20" s="22" t="s">
-        <v>16</v>
+      <c r="X19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y19" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A20" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="18"/>
       <c r="K20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="T20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA20" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21" s="24"/>
-      <c r="B21" s="22" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A21" s="25"/>
+      <c r="B21" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
         <f>SUMPRODUCT($S$21:$S$26,$L$21:$L$26)</f>
         <v>19.047619047619047</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="1"/>
       <c r="H21" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I21" s="18">
-        <f ca="1">O21*$D$24/SUM(N21:O21)+N21*$D$25/SUM(N21:O21)</f>
-        <v>22.833323381509139</v>
+        <f t="shared" ref="I21:I26" ca="1" si="0">O21*$D$24/SUM(N21:O21)+N21*$D$25/SUM(N21:O21)</f>
+        <v>33.174998506932283</v>
       </c>
       <c r="J21" s="1">
         <v>0.15</v>
       </c>
       <c r="K21" s="1">
-        <f ca="1">$D$20*J21+I21*(1-J21)</f>
-        <v>19.408324874282769</v>
+        <f ca="1">$D$20*J21+$D$24*(1-J21)</f>
+        <v>29.749999999998586</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
@@ -2213,7 +2189,7 @@
         <v>5</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" ref="P21:P26" si="0">1/SUM(N21:O21)</f>
+        <f t="shared" ref="P21:P26" si="1">1/SUM(N21:O21)</f>
         <v>9.0499910416037957E-2</v>
       </c>
       <c r="Q21" s="1">
@@ -2227,41 +2203,33 @@
         <v>3.1746031746031744</v>
       </c>
       <c r="T21" s="9">
-        <f ca="1">$K21+($U21-$K21)*SUM($Q21,$R21)/SUM($Q21,$R21,$P21)</f>
-        <v>21.324991541166206</v>
+        <f ca="1">$K21+($I21-$K21)*SUM($Q21,$R21)/SUM($Q21,$R21,$P21)</f>
+        <v>31.666666666665101</v>
       </c>
       <c r="U21" s="1">
-        <f ca="1">($D$24*$O21+$D$25*$N21)/SUM($O21,$N21)</f>
-        <v>22.833323381509143</v>
+        <f t="shared" ref="U21:U26" ca="1" si="2">($D$24-$T21)*$O21</f>
+        <v>16.666666666666181</v>
       </c>
       <c r="V21" s="1">
-        <f ca="1">($D$24-$T21)*$O21</f>
-        <v>16.666666666991716</v>
-      </c>
-      <c r="W21" s="1">
-        <f ca="1">($D$25-$T21)*$N21</f>
-        <v>5.1069458380596207E-10</v>
-      </c>
-      <c r="X21" s="7">
-        <f t="shared" ref="X21:X25" ca="1" si="1">SUM($V21,$W21)</f>
-        <v>16.666666667502412</v>
-      </c>
-      <c r="Y21" s="1">
-        <f>(1-$Y$25)*L21/SUM($L$21:$L$24,$L$26)</f>
+        <f t="shared" ref="V21:V26" ca="1" si="3">($D$25-$T21)*$N21</f>
+        <v>-7.9524008252264615E-13</v>
+      </c>
+      <c r="W21" s="7">
+        <f t="shared" ref="W21:W25" ca="1" si="4">SUM($U21,$V21)</f>
+        <v>16.666666666665385</v>
+      </c>
+      <c r="X21" s="1">
+        <f>(1-$X$25)*L21/SUM($L$21:$L$24,$L$26)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="Z21" s="20">
-        <f ca="1">SUMPRODUCT(T21:T26,Y21:Y26)</f>
-        <v>21.324991541191807</v>
-      </c>
-      <c r="AA21" s="1">
-        <f ca="1">(O21*$D$24+N21*$D$25)*P21</f>
-        <v>22.833323381509143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="Y21" s="20">
+        <f ca="1">SUMPRODUCT(T21:T26,X21:X26)</f>
+        <v>31.666666666665069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
@@ -2273,18 +2241,18 @@
       </c>
       <c r="F22" s="1"/>
       <c r="H22" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I22" s="18">
-        <f ca="1">O22*$D$24/SUM(N22:O22)+N22*$D$25/SUM(N22:O22)</f>
-        <v>22.833323381509139</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.174998506932283</v>
       </c>
       <c r="J22" s="1">
         <v>0.15</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:K26" ca="1" si="2">$D$20*J22+I22*(1-J22)</f>
-        <v>19.408324874282769</v>
+        <f t="shared" ref="K22:K26" ca="1" si="5">$D$20*J22+$D$24*(1-J22)</f>
+        <v>29.749999999998586</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
@@ -2300,7 +2268,7 @@
         <v>5</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0499910416037957E-2</v>
       </c>
       <c r="Q22" s="1">
@@ -2310,69 +2278,61 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" ref="S22:S26" si="3">1/(1/O22+Q22+R22)</f>
+        <f t="shared" ref="S22:S26" si="6">1/(1/O22+Q22+R22)</f>
         <v>3.1746031746031744</v>
       </c>
       <c r="T22" s="9">
-        <f ca="1">$K22+($U22-$K22)*SUM($Q22,$R22)/SUM($Q22,$R22,$P22)</f>
-        <v>21.324991541166206</v>
+        <f t="shared" ref="T22:T26" ca="1" si="7">$K22+($I22-$K22)*SUM($Q22,$R22)/SUM($Q22,$R22,$P22)</f>
+        <v>31.666666666665101</v>
       </c>
       <c r="U22" s="1">
-        <f ca="1">($D$24*$O22+$D$25*$N22)/SUM($O22,$N22)</f>
-        <v>22.833323381509143</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16.666666666666181</v>
       </c>
       <c r="V22" s="1">
-        <f ca="1">($D$24-$T22)*$O22</f>
-        <v>16.666666666991716</v>
-      </c>
-      <c r="W22" s="1">
-        <f ca="1">($D$25-$T22)*$N22</f>
-        <v>5.1069458380596207E-10</v>
-      </c>
-      <c r="X22" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.666666667502412</v>
-      </c>
-      <c r="Y22" s="1">
-        <f>(1-$Y$25)*L22/SUM($L$21:$L$24,$L$26)</f>
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.9524008252264615E-13</v>
+      </c>
+      <c r="W22" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.666666666665385</v>
+      </c>
+      <c r="X22" s="1">
+        <f>(1-$X$25)*L22/SUM($L$21:$L$24,$L$26)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="AA22" s="1">
-        <f t="shared" ref="AA22:AA26" ca="1" si="4">(O22*$D$24+N22*$D$25)*P22</f>
-        <v>22.833323381509143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="21" t="s">
-        <v>17</v>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A23" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1">
-        <f ca="1">SUM($V$21:$V$26)</f>
-        <v>100.00000000171516</v>
+        <f ca="1">SUM($U$21:$U$26)</f>
+        <v>99.999999999997272</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="1"/>
       <c r="H23" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I23" s="18">
-        <f ca="1">O23*$D$24/SUM(N23:O23)+N23*$D$25/SUM(N23:O23)</f>
-        <v>22.833323381509139</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.174998506932283</v>
       </c>
       <c r="J23" s="1">
         <v>0.15</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>19.408324874282769</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>29.749999999998586</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
@@ -2388,7 +2348,7 @@
         <v>5</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0499910416037957E-2</v>
       </c>
       <c r="Q23" s="1">
@@ -2398,67 +2358,59 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.1746031746031744</v>
       </c>
       <c r="T23" s="9">
-        <f ca="1">$K23+($U23-$K23)*SUM($Q23,$R23)/SUM($Q23,$R23,$P23)</f>
-        <v>21.324991541166206</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>31.666666666665101</v>
       </c>
       <c r="U23" s="1">
-        <f ca="1">($D$24*$O23+$D$25*$N23)/SUM($O23,$N23)</f>
-        <v>22.833323381509143</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16.666666666666181</v>
       </c>
       <c r="V23" s="1">
-        <f ca="1">($D$24-$T23)*$O23</f>
-        <v>16.666666666991716</v>
-      </c>
-      <c r="W23" s="1">
-        <f ca="1">($D$25-$T23)*$N23</f>
-        <v>5.1069458380596207E-10</v>
-      </c>
-      <c r="X23" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.666666667502412</v>
-      </c>
-      <c r="Y23" s="1">
-        <f>(1-$Y$25)*L23/SUM($L$21:$L$24,$L$26)</f>
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.9524008252264615E-13</v>
+      </c>
+      <c r="W23" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.666666666665385</v>
+      </c>
+      <c r="X23" s="1">
+        <f>(1-$X$25)*L23/SUM($L$21:$L$24,$L$26)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="AA23" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>22.833323381509143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22" t="s">
-        <v>20</v>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="8">
         <f ca="1">$D$24+($D$22-$D$23)/$D$21</f>
-        <v>24.658324874474502</v>
+        <v>34.999999999998479</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="1"/>
       <c r="H24" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I24" s="18">
-        <f ca="1">O24*$D$24/SUM(N24:O24)+N24*$D$25/SUM(N24:O24)</f>
-        <v>22.833323381468396</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.174998506932347</v>
       </c>
       <c r="J24" s="1">
         <v>0.15</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>19.408324874248137</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>29.749999999998707</v>
       </c>
       <c r="L24" s="1">
         <v>1</v>
@@ -2474,7 +2426,7 @@
         <v>5</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0499910416037957E-2</v>
       </c>
       <c r="Q24" s="1">
@@ -2484,65 +2436,57 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.1746031746031744</v>
       </c>
       <c r="T24" s="9">
-        <f ca="1">$K24+($U24-$K24)*SUM($Q24,$R24)/SUM($Q24,$R24,$P24)</f>
-        <v>21.324991541127041</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>31.66666666666519</v>
       </c>
       <c r="U24" s="1">
-        <f ca="1">($D$24*$O24+$D$25*$N24)/SUM($O24,$N24)</f>
-        <v>22.833323381468393</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16.666666666666448</v>
       </c>
       <c r="V24" s="1">
-        <f ca="1">($D$24-$T24)*$O24</f>
-        <v>16.666666666737306</v>
-      </c>
-      <c r="W24" s="1">
-        <f ca="1">($D$25-$T24)*$N24</f>
-        <v>7.4763314244730396E-10</v>
-      </c>
-      <c r="X24" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.66666666748494</v>
-      </c>
-      <c r="Y24" s="1">
-        <f>(1-$Y$25)*L24/SUM($L$21:$L$24,$L$26)</f>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.3325644626055153E-12</v>
+      </c>
+      <c r="W24" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.666666666665115</v>
+      </c>
+      <c r="X24" s="1">
+        <f>(1-$X$25)*L24/SUM($L$21:$L$24,$L$26)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="AA24" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>22.833323381468393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="21"/>
-      <c r="B25" s="23"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1">
         <f ca="1">SUMPRODUCT($N$21:$N$26,$L$21:$L$26,$T$21:$T$26)/SUMPRODUCT($N$21:$N$26,$L$21:$L$26)</f>
-        <v>21.324991541159676</v>
+        <v>31.666666666665115</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="1"/>
       <c r="H25" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I25" s="18">
-        <f ca="1">O25*$D$24/SUM(N25:O25)+N25*$D$25/SUM(N25:O25)</f>
-        <v>22.833323381418602</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.174998506932425</v>
       </c>
       <c r="J25" s="1">
         <v>0.15</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>19.40832487420581</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>29.749999999998707</v>
       </c>
       <c r="L25" s="1">
         <v>1</v>
@@ -2558,7 +2502,7 @@
         <v>5</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0499910416037957E-2</v>
       </c>
       <c r="Q25" s="1">
@@ -2568,52 +2512,44 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.1746031746031744</v>
       </c>
       <c r="T25" s="9">
-        <f ca="1">$K25+($U25-$K25)*SUM($Q25,$R25)/SUM($Q25,$R25,$P25)</f>
-        <v>21.324991541079179</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>31.666666666665236</v>
       </c>
       <c r="U25" s="1">
-        <f ca="1">($D$24*$O25+$D$25*$N25)/SUM($O25,$N25)</f>
-        <v>22.833323381418602</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16.666666666666217</v>
       </c>
       <c r="V25" s="1">
-        <f ca="1">($D$24-$T25)*$O25</f>
-        <v>16.666666666976617</v>
-      </c>
-      <c r="W25" s="1">
-        <f ca="1">($D$25-$T25)*$N25</f>
-        <v>4.8698783215670588E-10</v>
-      </c>
-      <c r="X25" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.666666667463605</v>
-      </c>
-      <c r="Y25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.307611569127019E-13</v>
+      </c>
+      <c r="W25" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.666666666665485</v>
+      </c>
+      <c r="X25" s="1">
         <v>0.45</v>
       </c>
-      <c r="AA25" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>22.833323381418602</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="C26" s="25"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="C26" s="21"/>
       <c r="H26" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I26" s="18">
-        <f ca="1">O26*$D$24/SUM(N26:O26)+N26*$D$25/SUM(N26:O26)</f>
-        <v>22.833323381418602</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.174998506932425</v>
       </c>
       <c r="J26" s="1">
         <v>0.15</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>19.40832487420581</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>29.749999999998707</v>
       </c>
       <c r="L26" s="1">
         <v>1</v>
@@ -2629,7 +2565,7 @@
         <v>5</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0499910416037957E-2</v>
       </c>
       <c r="Q26" s="1">
@@ -2639,36 +2575,28 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.1746031746031744</v>
       </c>
       <c r="T26" s="9">
-        <f ca="1">$K26+($U26-$K26)*SUM($Q26,$R26)/SUM($Q26,$R26,$P26)</f>
-        <v>21.324991541079179</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>31.666666666665236</v>
       </c>
       <c r="U26" s="1">
-        <f ca="1">($D$24*$O26+$D$25*$N26)/SUM($O26,$N26)</f>
-        <v>22.833323381418602</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16.666666666666217</v>
       </c>
       <c r="V26" s="1">
-        <f ca="1">($D$24-$T26)*$O26</f>
-        <v>16.666666666976617</v>
-      </c>
-      <c r="W26" s="1">
-        <f ca="1">($D$25-$T26)*$N26</f>
-        <v>4.8698783215670588E-10</v>
-      </c>
-      <c r="X26" s="7">
-        <f ca="1">SUM($V26,$W26)</f>
-        <v>16.666666667463605</v>
-      </c>
-      <c r="Y26" s="1">
-        <f>(1-$Y$25)*L26/SUM($L$21:$L$24,$L$26)</f>
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.307611569127019E-13</v>
+      </c>
+      <c r="W26" s="7">
+        <f ca="1">SUM($U26,$V26)</f>
+        <v>16.666666666665485</v>
+      </c>
+      <c r="X26" s="1">
+        <f>(1-$X$25)*L26/SUM($L$21:$L$24,$L$26)</f>
         <v>0.11000000000000001</v>
-      </c>
-      <c r="AA26" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>22.833323381418602</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/test_singlezone/steady_08/正解値08.xlsx
+++ b/src/test/test_singlezone/steady_08/正解値08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\src\test\test_singlezone\steady_08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC712D5E-D0E3-4896-8A14-AE270F644865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982752F2-9A54-4F09-9884-579867F450D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="14820" yWindow="870" windowWidth="13980" windowHeight="14610" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -1029,6 +1029,16 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱貫流率</t>
+    <rPh sb="0" eb="3">
+      <t>ネツカンリュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1170,7 +1180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1236,6 +1246,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1911,10 +1924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O7" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21:S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1930,12 +1943,13 @@
     <col min="14" max="15" width="12.625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="20.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.625" customWidth="1"/>
+    <col min="20" max="20" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
@@ -2008,17 +2022,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
@@ -2059,30 +2073,33 @@
       <c r="R19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="S19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="T19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="X19" s="5" t="s">
+      <c r="Y19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Y19" s="19" t="s">
+      <c r="Z19" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A20" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2125,14 +2142,14 @@
       <c r="R20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="S20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>28</v>
@@ -2140,21 +2157,24 @@
       <c r="W20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="19" t="s">
+      <c r="X20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A21" s="25"/>
-      <c r="B21" s="23" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A21" s="26"/>
+      <c r="B21" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1">
-        <f>SUMPRODUCT($S$21:$S$26,$L$21:$L$26)</f>
+        <f>SUMPRODUCT($T$21:$T$26,$L$21:$L$26)</f>
         <v>19.047619047619047</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2166,14 +2186,14 @@
       </c>
       <c r="I21" s="18">
         <f t="shared" ref="I21:I26" ca="1" si="0">O21*$D$24/SUM(N21:O21)+N21*$D$25/SUM(N21:O21)</f>
-        <v>33.174998506932283</v>
+        <v>33.174998506933633</v>
       </c>
       <c r="J21" s="1">
         <v>0.15</v>
       </c>
       <c r="K21" s="1">
         <f ca="1">$D$20*J21+$D$24*(1-J21)</f>
-        <v>29.749999999998586</v>
+        <v>29.749999999999723</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
@@ -2199,37 +2219,41 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="S21" s="1">
+        <f>1/SUM(P21:R21)</f>
+        <v>4.8661821699848122</v>
+      </c>
+      <c r="T21" s="1">
         <f>1/(1/O21+Q21+R21)</f>
         <v>3.1746031746031744</v>
       </c>
-      <c r="T21" s="9">
+      <c r="U21" s="9">
         <f ca="1">$K21+($I21-$K21)*SUM($Q21,$R21)/SUM($Q21,$R21,$P21)</f>
-        <v>31.666666666665101</v>
-      </c>
-      <c r="U21" s="1">
-        <f t="shared" ref="U21:U26" ca="1" si="2">($D$24-$T21)*$O21</f>
-        <v>16.666666666666181</v>
+        <v>31.666666666666359</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" ref="V21:V26" ca="1" si="3">($D$25-$T21)*$N21</f>
-        <v>-7.9524008252264615E-13</v>
-      </c>
-      <c r="W21" s="7">
-        <f t="shared" ref="W21:W25" ca="1" si="4">SUM($U21,$V21)</f>
-        <v>16.666666666665385</v>
-      </c>
-      <c r="X21" s="1">
-        <f>(1-$X$25)*L21/SUM($L$21:$L$24,$L$26)</f>
+        <f t="shared" ref="V21:V26" ca="1" si="2">($D$24-$U21)*$O21</f>
+        <v>16.666666666666572</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" ref="W21:W26" ca="1" si="3">($D$25-$U21)*$N21</f>
+        <v>-1.7194380162651809E-13</v>
+      </c>
+      <c r="X21" s="7">
+        <f t="shared" ref="X21:X25" ca="1" si="4">SUM($V21,$W21)</f>
+        <v>16.666666666666401</v>
+      </c>
+      <c r="Y21" s="1">
+        <f>(1-$Y$25)*L21/SUM($L$21:$L$24,$L$26)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="Y21" s="20">
-        <f ca="1">SUMPRODUCT(T21:T26,X21:X26)</f>
-        <v>31.666666666665069</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="Z21" s="20">
+        <f ca="1">SUMPRODUCT(U21:U26,Y21:Y26)</f>
+        <v>31.666666666666352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
@@ -2245,14 +2269,14 @@
       </c>
       <c r="I22" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>33.174998506932283</v>
+        <v>33.174998506933633</v>
       </c>
       <c r="J22" s="1">
         <v>0.15</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" ref="K22:K26" ca="1" si="5">$D$20*J22+$D$24*(1-J22)</f>
-        <v>29.749999999998586</v>
+        <v>29.749999999999723</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
@@ -2278,32 +2302,36 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" ref="S22:S26" si="6">1/(1/O22+Q22+R22)</f>
+        <f t="shared" ref="S22:S26" si="6">1/SUM(P22:R22)</f>
+        <v>4.8661821699848122</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" ref="T22:T26" si="7">1/(1/O22+Q22+R22)</f>
         <v>3.1746031746031744</v>
       </c>
-      <c r="T22" s="9">
-        <f t="shared" ref="T22:T26" ca="1" si="7">$K22+($I22-$K22)*SUM($Q22,$R22)/SUM($Q22,$R22,$P22)</f>
-        <v>31.666666666665101</v>
-      </c>
-      <c r="U22" s="1">
+      <c r="U22" s="9">
+        <f t="shared" ref="U22:U26" ca="1" si="8">$K22+($I22-$K22)*SUM($Q22,$R22)/SUM($Q22,$R22,$P22)</f>
+        <v>31.666666666666359</v>
+      </c>
+      <c r="V22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16.666666666666181</v>
-      </c>
-      <c r="V22" s="1">
+        <v>16.666666666666572</v>
+      </c>
+      <c r="W22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.9524008252264615E-13</v>
-      </c>
-      <c r="W22" s="7">
+        <v>-1.7194380162651809E-13</v>
+      </c>
+      <c r="X22" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>16.666666666665385</v>
-      </c>
-      <c r="X22" s="1">
-        <f>(1-$X$25)*L22/SUM($L$21:$L$24,$L$26)</f>
+        <v>16.666666666666401</v>
+      </c>
+      <c r="Y22" s="1">
+        <f>(1-$Y$25)*L22/SUM($L$21:$L$24,$L$26)</f>
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A23" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2313,8 +2341,8 @@
         <v>32</v>
       </c>
       <c r="D23" s="1">
-        <f ca="1">SUM($U$21:$U$26)</f>
-        <v>99.999999999997272</v>
+        <f ca="1">SUM($V$21:$V$26)</f>
+        <v>99.999999999999488</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>2</v>
@@ -2325,14 +2353,14 @@
       </c>
       <c r="I23" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>33.174998506932283</v>
+        <v>33.174998506933633</v>
       </c>
       <c r="J23" s="1">
         <v>0.15</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>29.749999999998586</v>
+        <v>29.749999999999723</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
@@ -2359,32 +2387,36 @@
       </c>
       <c r="S23" s="1">
         <f t="shared" si="6"/>
+        <v>4.8661821699848122</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="7"/>
         <v>3.1746031746031744</v>
       </c>
-      <c r="T23" s="9">
-        <f t="shared" ca="1" si="7"/>
-        <v>31.666666666665101</v>
-      </c>
-      <c r="U23" s="1">
+      <c r="U23" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>31.666666666666359</v>
+      </c>
+      <c r="V23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16.666666666666181</v>
-      </c>
-      <c r="V23" s="1">
+        <v>16.666666666666572</v>
+      </c>
+      <c r="W23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.9524008252264615E-13</v>
-      </c>
-      <c r="W23" s="7">
+        <v>-1.7194380162651809E-13</v>
+      </c>
+      <c r="X23" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>16.666666666665385</v>
-      </c>
-      <c r="X23" s="1">
-        <f>(1-$X$25)*L23/SUM($L$21:$L$24,$L$26)</f>
+        <v>16.666666666666401</v>
+      </c>
+      <c r="Y23" s="1">
+        <f>(1-$Y$25)*L23/SUM($L$21:$L$24,$L$26)</f>
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23" t="s">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2392,7 +2424,7 @@
       </c>
       <c r="D24" s="8">
         <f ca="1">$D$24+($D$22-$D$23)/$D$21</f>
-        <v>34.999999999998479</v>
+        <v>34.999999999999702</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
@@ -2403,14 +2435,14 @@
       </c>
       <c r="I24" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>33.174998506932347</v>
+        <v>33.174998506933647</v>
       </c>
       <c r="J24" s="1">
         <v>0.15</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>29.749999999998707</v>
+        <v>29.749999999999744</v>
       </c>
       <c r="L24" s="1">
         <v>1</v>
@@ -2437,38 +2469,42 @@
       </c>
       <c r="S24" s="1">
         <f t="shared" si="6"/>
+        <v>4.8661821699848122</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="7"/>
         <v>3.1746031746031744</v>
       </c>
-      <c r="T24" s="9">
-        <f t="shared" ca="1" si="7"/>
-        <v>31.66666666666519</v>
-      </c>
-      <c r="U24" s="1">
+      <c r="U24" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>31.666666666666377</v>
+      </c>
+      <c r="V24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16.666666666666448</v>
-      </c>
-      <c r="V24" s="1">
+        <v>16.666666666666625</v>
+      </c>
+      <c r="W24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.3325644626055153E-12</v>
-      </c>
-      <c r="W24" s="7">
+        <v>-2.7940867764309188E-13</v>
+      </c>
+      <c r="X24" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>16.666666666665115</v>
-      </c>
-      <c r="X24" s="1">
-        <f>(1-$X$25)*L24/SUM($L$21:$L$24,$L$26)</f>
+        <v>16.666666666666345</v>
+      </c>
+      <c r="Y24" s="1">
+        <f>(1-$Y$25)*L24/SUM($L$21:$L$24,$L$26)</f>
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A25" s="22"/>
-      <c r="B25" s="24"/>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A25" s="23"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="1">
-        <f ca="1">SUMPRODUCT($N$21:$N$26,$L$21:$L$26,$T$21:$T$26)/SUMPRODUCT($N$21:$N$26,$L$21:$L$26)</f>
-        <v>31.666666666665115</v>
+        <f ca="1">SUMPRODUCT($N$21:$N$26,$L$21:$L$26,$U$21:$U$26)/SUMPRODUCT($N$21:$N$26,$L$21:$L$26)</f>
+        <v>31.666666666666355</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>8</v>
@@ -2479,14 +2515,14 @@
       </c>
       <c r="I25" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>33.174998506932425</v>
+        <v>33.174998506933662</v>
       </c>
       <c r="J25" s="1">
         <v>0.15</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>29.749999999998707</v>
+        <v>29.749999999999744</v>
       </c>
       <c r="L25" s="1">
         <v>1</v>
@@ -2513,43 +2549,47 @@
       </c>
       <c r="S25" s="1">
         <f t="shared" si="6"/>
+        <v>4.8661821699848122</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="7"/>
         <v>3.1746031746031744</v>
       </c>
-      <c r="T25" s="9">
-        <f t="shared" ca="1" si="7"/>
-        <v>31.666666666665236</v>
-      </c>
-      <c r="U25" s="1">
+      <c r="U25" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>31.666666666666384</v>
+      </c>
+      <c r="V25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16.666666666666217</v>
-      </c>
-      <c r="V25" s="1">
+        <v>16.66666666666659</v>
+      </c>
+      <c r="W25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.307611569127019E-13</v>
-      </c>
-      <c r="W25" s="7">
+        <v>-1.7194380162651809E-13</v>
+      </c>
+      <c r="X25" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>16.666666666665485</v>
-      </c>
-      <c r="X25" s="1">
+        <v>16.666666666666419</v>
+      </c>
+      <c r="Y25" s="1">
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C26" s="21"/>
       <c r="H26" s="6" t="s">
         <v>33</v>
       </c>
       <c r="I26" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>33.174998506932425</v>
+        <v>33.174998506933662</v>
       </c>
       <c r="J26" s="1">
         <v>0.15</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>29.749999999998707</v>
+        <v>29.749999999999744</v>
       </c>
       <c r="L26" s="1">
         <v>1</v>
@@ -2576,26 +2616,30 @@
       </c>
       <c r="S26" s="1">
         <f t="shared" si="6"/>
+        <v>4.8661821699848122</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="7"/>
         <v>3.1746031746031744</v>
       </c>
-      <c r="T26" s="9">
-        <f t="shared" ca="1" si="7"/>
-        <v>31.666666666665236</v>
-      </c>
-      <c r="U26" s="1">
+      <c r="U26" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>31.666666666666384</v>
+      </c>
+      <c r="V26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16.666666666666217</v>
-      </c>
-      <c r="V26" s="1">
+        <v>16.66666666666659</v>
+      </c>
+      <c r="W26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.307611569127019E-13</v>
-      </c>
-      <c r="W26" s="7">
-        <f ca="1">SUM($U26,$V26)</f>
-        <v>16.666666666665485</v>
-      </c>
-      <c r="X26" s="1">
-        <f>(1-$X$25)*L26/SUM($L$21:$L$24,$L$26)</f>
+        <v>-1.7194380162651809E-13</v>
+      </c>
+      <c r="X26" s="7">
+        <f ca="1">SUM($V26,$W26)</f>
+        <v>16.666666666666419</v>
+      </c>
+      <c r="Y26" s="1">
+        <f>(1-$Y$25)*L26/SUM($L$21:$L$24,$L$26)</f>
         <v>0.11000000000000001</v>
       </c>
     </row>
